--- a/1toolConverter_local/parametros_convertidos.xlsx
+++ b/1toolConverter_local/parametros_convertidos.xlsx
@@ -17656,7 +17656,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CONFIG_PARAMETER</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -17666,13 +17666,13 @@
         </is>
       </c>
       <c r="H176" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J176" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K176" t="n">
         <v>1</v>
@@ -35394,7 +35394,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F357" t="inlineStr"/>
@@ -35404,7 +35404,7 @@
         </is>
       </c>
       <c r="H357" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I357" t="n">
         <v>4</v>
@@ -35590,7 +35590,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F359" t="inlineStr"/>
@@ -35600,13 +35600,13 @@
         </is>
       </c>
       <c r="H359" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I359" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J359" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K359" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
       <c r="D383" t="inlineStr"/>
       <c r="E383" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F383" t="inlineStr"/>
@@ -37948,7 +37948,7 @@
         </is>
       </c>
       <c r="H383" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I383" t="n">
         <v>4</v>
@@ -40188,7 +40188,7 @@
       <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F406" t="inlineStr"/>
@@ -40198,7 +40198,7 @@
         </is>
       </c>
       <c r="H406" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I406" t="n">
         <v>4</v>
@@ -40286,7 +40286,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F407" t="inlineStr"/>
@@ -40296,7 +40296,7 @@
         </is>
       </c>
       <c r="H407" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I407" t="n">
         <v>4</v>
@@ -40384,7 +40384,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F408" t="inlineStr"/>
@@ -40394,7 +40394,7 @@
         </is>
       </c>
       <c r="H408" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I408" t="n">
         <v>4</v>
@@ -40482,7 +40482,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F409" t="inlineStr"/>
@@ -40492,7 +40492,7 @@
         </is>
       </c>
       <c r="H409" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I409" t="n">
         <v>4</v>
@@ -40580,7 +40580,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F410" t="inlineStr"/>
@@ -40590,7 +40590,7 @@
         </is>
       </c>
       <c r="H410" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I410" t="n">
         <v>4</v>
@@ -40678,7 +40678,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F411" t="inlineStr"/>
@@ -40688,7 +40688,7 @@
         </is>
       </c>
       <c r="H411" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I411" t="n">
         <v>4</v>
@@ -40776,7 +40776,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F412" t="inlineStr"/>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="H412" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I412" t="n">
         <v>4</v>
@@ -42438,7 +42438,7 @@
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F429" t="inlineStr"/>
@@ -42448,7 +42448,7 @@
         </is>
       </c>
       <c r="H429" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I429" t="n">
         <v>4</v>
@@ -42536,7 +42536,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="H430" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I430" t="n">
         <v>4</v>
@@ -42634,7 +42634,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F431" t="inlineStr"/>
@@ -42644,7 +42644,7 @@
         </is>
       </c>
       <c r="H431" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I431" t="n">
         <v>4</v>
@@ -42732,7 +42732,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
@@ -42742,7 +42742,7 @@
         </is>
       </c>
       <c r="H432" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I432" t="n">
         <v>4</v>
@@ -42830,7 +42830,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
@@ -42840,7 +42840,7 @@
         </is>
       </c>
       <c r="H433" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I433" t="n">
         <v>4</v>
@@ -42928,7 +42928,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F434" t="inlineStr"/>
@@ -42938,7 +42938,7 @@
         </is>
       </c>
       <c r="H434" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I434" t="n">
         <v>4</v>
@@ -43026,7 +43026,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F435" t="inlineStr"/>
@@ -43036,7 +43036,7 @@
         </is>
       </c>
       <c r="H435" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I435" t="n">
         <v>4</v>
@@ -44688,7 +44688,7 @@
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F452" t="inlineStr"/>
@@ -44698,7 +44698,7 @@
         </is>
       </c>
       <c r="H452" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I452" t="n">
         <v>4</v>
@@ -44786,7 +44786,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
@@ -44796,7 +44796,7 @@
         </is>
       </c>
       <c r="H453" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I453" t="n">
         <v>4</v>
@@ -44884,7 +44884,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
@@ -44894,7 +44894,7 @@
         </is>
       </c>
       <c r="H454" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I454" t="n">
         <v>4</v>
@@ -44982,7 +44982,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
@@ -44992,7 +44992,7 @@
         </is>
       </c>
       <c r="H455" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I455" t="n">
         <v>4</v>
@@ -45080,7 +45080,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
@@ -45090,7 +45090,7 @@
         </is>
       </c>
       <c r="H456" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I456" t="n">
         <v>4</v>
@@ -45178,7 +45178,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
@@ -45188,7 +45188,7 @@
         </is>
       </c>
       <c r="H457" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I457" t="n">
         <v>4</v>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
@@ -45286,7 +45286,7 @@
         </is>
       </c>
       <c r="H458" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I458" t="n">
         <v>4</v>
@@ -46938,7 +46938,7 @@
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
@@ -46948,7 +46948,7 @@
         </is>
       </c>
       <c r="H475" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I475" t="n">
         <v>4</v>
@@ -47036,7 +47036,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
@@ -47046,7 +47046,7 @@
         </is>
       </c>
       <c r="H476" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I476" t="n">
         <v>4</v>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
@@ -47144,7 +47144,7 @@
         </is>
       </c>
       <c r="H477" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I477" t="n">
         <v>4</v>
@@ -47232,7 +47232,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
@@ -47242,7 +47242,7 @@
         </is>
       </c>
       <c r="H478" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I478" t="n">
         <v>4</v>
@@ -47330,7 +47330,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
@@ -47340,7 +47340,7 @@
         </is>
       </c>
       <c r="H479" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I479" t="n">
         <v>4</v>
@@ -47428,7 +47428,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
@@ -47438,7 +47438,7 @@
         </is>
       </c>
       <c r="H480" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I480" t="n">
         <v>4</v>
@@ -47526,7 +47526,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
@@ -47536,7 +47536,7 @@
         </is>
       </c>
       <c r="H481" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I481" t="n">
         <v>4</v>
@@ -49188,7 +49188,7 @@
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
@@ -49198,7 +49198,7 @@
         </is>
       </c>
       <c r="H498" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I498" t="n">
         <v>4</v>
@@ -49286,7 +49286,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
@@ -49296,7 +49296,7 @@
         </is>
       </c>
       <c r="H499" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I499" t="n">
         <v>4</v>
@@ -49384,7 +49384,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
@@ -49394,7 +49394,7 @@
         </is>
       </c>
       <c r="H500" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I500" t="n">
         <v>4</v>
@@ -49482,7 +49482,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
@@ -49492,7 +49492,7 @@
         </is>
       </c>
       <c r="H501" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I501" t="n">
         <v>4</v>
@@ -49580,7 +49580,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
@@ -49590,7 +49590,7 @@
         </is>
       </c>
       <c r="H502" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I502" t="n">
         <v>4</v>
@@ -49678,7 +49678,7 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
@@ -49688,7 +49688,7 @@
         </is>
       </c>
       <c r="H503" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I503" t="n">
         <v>4</v>
@@ -49776,7 +49776,7 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
@@ -49786,7 +49786,7 @@
         </is>
       </c>
       <c r="H504" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I504" t="n">
         <v>4</v>
@@ -51438,7 +51438,7 @@
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
@@ -51448,7 +51448,7 @@
         </is>
       </c>
       <c r="H521" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I521" t="n">
         <v>4</v>
@@ -51536,7 +51536,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
@@ -51546,7 +51546,7 @@
         </is>
       </c>
       <c r="H522" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I522" t="n">
         <v>4</v>
@@ -51634,7 +51634,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
@@ -51644,7 +51644,7 @@
         </is>
       </c>
       <c r="H523" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I523" t="n">
         <v>4</v>
@@ -51732,7 +51732,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
@@ -51742,7 +51742,7 @@
         </is>
       </c>
       <c r="H524" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I524" t="n">
         <v>4</v>
@@ -51830,7 +51830,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
@@ -51840,7 +51840,7 @@
         </is>
       </c>
       <c r="H525" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I525" t="n">
         <v>4</v>
@@ -51928,7 +51928,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
@@ -51938,7 +51938,7 @@
         </is>
       </c>
       <c r="H526" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I526" t="n">
         <v>4</v>
@@ -52026,7 +52026,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
@@ -52036,7 +52036,7 @@
         </is>
       </c>
       <c r="H527" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I527" t="n">
         <v>4</v>
@@ -53688,7 +53688,7 @@
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F544" t="inlineStr"/>
@@ -53698,7 +53698,7 @@
         </is>
       </c>
       <c r="H544" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I544" t="n">
         <v>4</v>
@@ -53786,7 +53786,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F545" t="inlineStr"/>
@@ -53796,7 +53796,7 @@
         </is>
       </c>
       <c r="H545" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I545" t="n">
         <v>4</v>
@@ -53884,7 +53884,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
@@ -53894,7 +53894,7 @@
         </is>
       </c>
       <c r="H546" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I546" t="n">
         <v>4</v>
@@ -53982,7 +53982,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F547" t="inlineStr"/>
@@ -53992,7 +53992,7 @@
         </is>
       </c>
       <c r="H547" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I547" t="n">
         <v>4</v>
@@ -54080,7 +54080,7 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F548" t="inlineStr"/>
@@ -54090,7 +54090,7 @@
         </is>
       </c>
       <c r="H548" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I548" t="n">
         <v>4</v>
@@ -54178,7 +54178,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F549" t="inlineStr"/>
@@ -54188,7 +54188,7 @@
         </is>
       </c>
       <c r="H549" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I549" t="n">
         <v>4</v>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F550" t="inlineStr"/>
@@ -54286,7 +54286,7 @@
         </is>
       </c>
       <c r="H550" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I550" t="n">
         <v>4</v>

--- a/1toolConverter_local/parametros_convertidos.xlsx
+++ b/1toolConverter_local/parametros_convertidos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Parametros_Unificados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parametros_Unificados" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -800,7 +800,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -898,7 +898,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -7072,7 +7072,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -7464,7 +7464,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -8248,7 +8248,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -8444,7 +8444,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -8934,7 +8934,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -9228,7 +9228,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -9424,7 +9424,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -9522,7 +9522,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -9620,7 +9620,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -9914,7 +9914,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -10110,7 +10110,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -10208,7 +10208,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -10306,7 +10306,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -10894,7 +10894,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -11090,7 +11090,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -11286,7 +11286,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -11482,7 +11482,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -11874,7 +11874,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -12070,7 +12070,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -12266,7 +12266,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -12854,7 +12854,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -12952,7 +12952,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -13148,7 +13148,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -13246,7 +13246,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -13344,7 +13344,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
@@ -13442,7 +13442,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
@@ -13540,7 +13540,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -13638,7 +13638,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -13834,7 +13834,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -14030,7 +14030,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -14128,7 +14128,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -14226,7 +14226,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -14324,7 +14324,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
@@ -14520,7 +14520,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -14814,7 +14814,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -14912,7 +14912,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
@@ -15206,7 +15206,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -15402,7 +15402,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -15500,7 +15500,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -15696,7 +15696,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -15794,7 +15794,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -15990,7 +15990,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -16088,7 +16088,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -16186,7 +16186,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -16284,7 +16284,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -16480,7 +16480,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -16578,7 +16578,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -16676,7 +16676,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -16774,7 +16774,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -16800,7 +16800,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N167" t="n">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -16898,7 +16898,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N168" t="n">
@@ -16970,7 +16970,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N169" t="n">
@@ -17068,7 +17068,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -17094,7 +17094,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N170" t="n">
@@ -17166,7 +17166,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -17192,7 +17192,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N171" t="n">
@@ -17290,7 +17290,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N172" t="n">
@@ -17362,7 +17362,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -17388,7 +17388,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N173" t="n">
@@ -17486,7 +17486,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N174" t="n">
@@ -17682,7 +17682,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N176" t="n">
@@ -17852,7 +17852,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -17878,7 +17878,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N178" t="n">
@@ -17950,7 +17950,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -17976,7 +17976,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N179" t="n">
@@ -18048,7 +18048,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -18074,7 +18074,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N180" t="n">
@@ -18146,7 +18146,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N181" t="n">
@@ -18244,7 +18244,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -18270,7 +18270,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N182" t="n">
@@ -18342,7 +18342,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -18368,7 +18368,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N183" t="n">
@@ -18440,7 +18440,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -18466,7 +18466,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N184" t="n">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N185" t="n">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -18662,7 +18662,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N186" t="n">
@@ -18734,7 +18734,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -18760,7 +18760,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N187" t="n">
@@ -18832,7 +18832,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N188" t="n">
@@ -18930,7 +18930,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -18956,7 +18956,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N189" t="n">
@@ -19028,7 +19028,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -19054,7 +19054,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N190" t="n">
@@ -19126,7 +19126,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -19152,7 +19152,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N191" t="n">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -19250,7 +19250,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N192" t="n">
@@ -19322,7 +19322,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -19348,7 +19348,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N193" t="n">
@@ -19420,7 +19420,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -19446,7 +19446,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N194" t="n">
@@ -19544,7 +19544,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N195" t="n">
@@ -19642,7 +19642,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N196" t="n">
@@ -19740,7 +19740,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N197" t="n">
@@ -19812,7 +19812,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -19838,7 +19838,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N198" t="n">
@@ -19936,7 +19936,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N199" t="n">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N200" t="n">
@@ -20132,7 +20132,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N201" t="n">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -20230,7 +20230,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N202" t="n">
@@ -20302,7 +20302,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N203" t="n">
@@ -20400,7 +20400,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -20426,7 +20426,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N204" t="n">
@@ -20498,7 +20498,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -20524,7 +20524,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N205" t="n">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -20622,7 +20622,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N206" t="n">
@@ -20694,7 +20694,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -20720,7 +20720,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N207" t="n">
@@ -20792,7 +20792,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N208" t="n">
@@ -20890,7 +20890,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -20916,7 +20916,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N209" t="n">
@@ -20988,7 +20988,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -21014,7 +21014,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N210" t="n">
@@ -21086,7 +21086,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -21112,7 +21112,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N211" t="n">
@@ -21184,7 +21184,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -21210,7 +21210,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N212" t="n">
@@ -21282,7 +21282,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -21308,7 +21308,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N213" t="n">
@@ -21406,7 +21406,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N214" t="n">
@@ -21504,7 +21504,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N215" t="n">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N216" t="n">
@@ -21674,7 +21674,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -21700,7 +21700,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N217" t="n">
@@ -21772,7 +21772,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -21798,7 +21798,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N218" t="n">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -21896,7 +21896,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N219" t="n">
@@ -21968,7 +21968,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N220" t="n">
@@ -22066,7 +22066,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N221" t="n">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -22190,7 +22190,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N222" t="n">
@@ -22262,7 +22262,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -22288,7 +22288,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N223" t="n">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -22386,7 +22386,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N224" t="n">
@@ -22458,7 +22458,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -22484,7 +22484,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N225" t="n">
@@ -22556,7 +22556,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -22582,7 +22582,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N226" t="n">
@@ -22654,7 +22654,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -22680,7 +22680,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N227" t="n">
@@ -22752,7 +22752,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -22778,7 +22778,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N228" t="n">
@@ -22850,7 +22850,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -22876,7 +22876,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N229" t="n">
@@ -22948,7 +22948,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -22974,7 +22974,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N230" t="n">
@@ -23046,7 +23046,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -23072,7 +23072,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N231" t="n">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -23170,7 +23170,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N232" t="n">
@@ -23268,7 +23268,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N233" t="n">
@@ -23366,7 +23366,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N234" t="n">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N235" t="n">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -23562,7 +23562,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N236" t="n">
@@ -23634,7 +23634,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -23660,7 +23660,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N237" t="n">
@@ -23732,7 +23732,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -23758,7 +23758,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N238" t="n">
@@ -23830,7 +23830,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -23856,7 +23856,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N239" t="n">
@@ -23928,7 +23928,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -23954,7 +23954,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N240" t="n">
@@ -24026,7 +24026,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -24052,7 +24052,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N241" t="n">
@@ -24124,7 +24124,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -24150,7 +24150,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N242" t="n">
@@ -24222,7 +24222,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -24248,7 +24248,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N243" t="n">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -24346,7 +24346,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N244" t="n">
@@ -24418,7 +24418,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -24444,7 +24444,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N245" t="n">
@@ -24516,7 +24516,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -24542,7 +24542,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N246" t="n">
@@ -24614,7 +24614,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N247" t="n">
@@ -24712,7 +24712,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -24738,7 +24738,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N248" t="n">
@@ -24810,7 +24810,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -24836,7 +24836,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N249" t="n">
@@ -24908,7 +24908,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -24934,7 +24934,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N250" t="n">
@@ -25006,7 +25006,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -25032,7 +25032,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N251" t="n">
@@ -25130,7 +25130,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N252" t="n">
@@ -25228,7 +25228,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N253" t="n">
@@ -25326,7 +25326,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N254" t="n">
@@ -25398,7 +25398,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -25424,7 +25424,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N255" t="n">
@@ -25496,7 +25496,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -25522,7 +25522,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N256" t="n">
@@ -25594,7 +25594,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N257" t="n">
@@ -25692,7 +25692,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -25718,7 +25718,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N258" t="n">
@@ -25790,7 +25790,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -25816,7 +25816,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N259" t="n">
@@ -25888,7 +25888,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -25914,7 +25914,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N260" t="n">
@@ -25986,7 +25986,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -26012,7 +26012,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N261" t="n">
@@ -26084,7 +26084,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -26110,7 +26110,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N262" t="n">
@@ -26182,7 +26182,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -26208,7 +26208,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N263" t="n">
@@ -26280,7 +26280,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
@@ -26306,7 +26306,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N264" t="n">
@@ -26378,7 +26378,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -26404,7 +26404,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N265" t="n">
@@ -26476,7 +26476,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -26502,7 +26502,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N266" t="n">
@@ -26574,7 +26574,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -26600,7 +26600,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N267" t="n">
@@ -26672,7 +26672,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -26698,7 +26698,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N268" t="n">
@@ -26770,7 +26770,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -26796,7 +26796,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N269" t="n">
@@ -26868,7 +26868,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -26894,7 +26894,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N270" t="n">
@@ -26992,7 +26992,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N271" t="n">
@@ -27090,7 +27090,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N272" t="n">
@@ -27188,7 +27188,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N273" t="n">
@@ -27260,7 +27260,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -27286,7 +27286,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N274" t="n">
@@ -27358,7 +27358,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
@@ -27384,7 +27384,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N275" t="n">
@@ -27456,7 +27456,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F276" t="inlineStr"/>
@@ -27482,7 +27482,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N276" t="n">
@@ -27554,7 +27554,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -27580,7 +27580,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N277" t="n">
@@ -27652,7 +27652,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -27678,7 +27678,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N278" t="n">
@@ -27750,7 +27750,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F279" t="inlineStr"/>
@@ -27776,7 +27776,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N279" t="n">
@@ -27848,7 +27848,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N280" t="n">
@@ -27946,7 +27946,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -27972,7 +27972,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N281" t="n">
@@ -28044,7 +28044,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -28070,7 +28070,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N282" t="n">
@@ -28142,7 +28142,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -28168,7 +28168,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N283" t="n">
@@ -28240,7 +28240,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -28266,7 +28266,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N284" t="n">
@@ -28338,7 +28338,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -28364,7 +28364,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N285" t="n">
@@ -28436,7 +28436,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -28462,7 +28462,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N286" t="n">
@@ -28534,7 +28534,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -28560,7 +28560,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N287" t="n">
@@ -28632,7 +28632,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -28658,7 +28658,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N288" t="n">
@@ -28730,7 +28730,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -28756,7 +28756,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N289" t="n">
@@ -28854,7 +28854,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N290" t="n">
@@ -28952,7 +28952,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N291" t="n">
@@ -29050,7 +29050,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N292" t="n">
@@ -29122,7 +29122,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N293" t="n">
@@ -29220,7 +29220,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -29246,7 +29246,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N294" t="n">
@@ -29318,7 +29318,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -29344,7 +29344,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N295" t="n">
@@ -29442,7 +29442,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N296" t="n">
@@ -29514,7 +29514,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -29540,7 +29540,7 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N297" t="n">
@@ -29612,7 +29612,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
@@ -29638,7 +29638,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N298" t="n">
@@ -29710,7 +29710,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F299" t="inlineStr"/>
@@ -29736,7 +29736,7 @@
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N299" t="n">
@@ -29808,7 +29808,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -29834,7 +29834,7 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N300" t="n">
@@ -29906,7 +29906,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
@@ -29932,7 +29932,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N301" t="n">
@@ -30004,7 +30004,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F302" t="inlineStr"/>
@@ -30030,7 +30030,7 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N302" t="n">
@@ -30102,7 +30102,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F303" t="inlineStr"/>
@@ -30128,7 +30128,7 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N303" t="n">
@@ -30200,7 +30200,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F304" t="inlineStr"/>
@@ -30226,7 +30226,7 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N304" t="n">
@@ -30298,7 +30298,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F305" t="inlineStr"/>
@@ -30324,7 +30324,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N305" t="n">
@@ -30396,7 +30396,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F306" t="inlineStr"/>
@@ -30422,7 +30422,7 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N306" t="n">
@@ -30494,7 +30494,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F307" t="inlineStr"/>
@@ -30520,7 +30520,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N307" t="n">
@@ -30592,7 +30592,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F308" t="inlineStr"/>
@@ -30618,7 +30618,7 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N308" t="n">
@@ -30716,7 +30716,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N309" t="n">
@@ -30814,7 +30814,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N310" t="n">
@@ -30912,7 +30912,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N311" t="n">
@@ -30984,7 +30984,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F312" t="inlineStr"/>
@@ -31010,7 +31010,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N312" t="n">
@@ -31082,7 +31082,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F313" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N313" t="n">
@@ -31180,7 +31180,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F314" t="inlineStr"/>
@@ -31206,7 +31206,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N314" t="n">
@@ -31278,7 +31278,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F315" t="inlineStr"/>
@@ -31304,7 +31304,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N315" t="n">
@@ -31376,7 +31376,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F316" t="inlineStr"/>
@@ -31402,7 +31402,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N316" t="n">
@@ -31474,7 +31474,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F317" t="inlineStr"/>
@@ -31500,7 +31500,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N317" t="n">
@@ -31572,7 +31572,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F318" t="inlineStr"/>
@@ -31598,7 +31598,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N318" t="n">
@@ -31670,7 +31670,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F319" t="inlineStr"/>
@@ -31696,7 +31696,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N319" t="n">
@@ -31768,7 +31768,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F320" t="inlineStr"/>
@@ -31794,7 +31794,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N320" t="n">
@@ -31866,7 +31866,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F321" t="inlineStr"/>
@@ -31892,7 +31892,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N321" t="n">
@@ -31964,7 +31964,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F322" t="inlineStr"/>
@@ -31990,7 +31990,7 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N322" t="n">
@@ -32062,7 +32062,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F323" t="inlineStr"/>
@@ -32088,7 +32088,7 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N323" t="n">
@@ -32160,7 +32160,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F324" t="inlineStr"/>
@@ -32186,7 +32186,7 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N324" t="n">
@@ -32258,7 +32258,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F325" t="inlineStr"/>
@@ -32284,7 +32284,7 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N325" t="n">
@@ -32356,7 +32356,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
@@ -32382,7 +32382,7 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N326" t="n">
@@ -32454,7 +32454,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F327" t="inlineStr"/>
@@ -32480,7 +32480,7 @@
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N327" t="n">
@@ -32578,7 +32578,7 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N328" t="n">
@@ -32676,7 +32676,7 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N329" t="n">
@@ -32774,7 +32774,7 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N330" t="n">
@@ -32846,7 +32846,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F331" t="inlineStr"/>
@@ -32872,7 +32872,7 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N331" t="n">
@@ -32944,7 +32944,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F332" t="inlineStr"/>
@@ -32970,7 +32970,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N332" t="n">
@@ -33042,7 +33042,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F333" t="inlineStr"/>
@@ -33068,7 +33068,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N333" t="n">
@@ -33140,7 +33140,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F334" t="inlineStr"/>
@@ -33238,7 +33238,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F335" t="inlineStr"/>
@@ -33336,7 +33336,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F336" t="inlineStr"/>
@@ -33434,7 +33434,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F337" t="inlineStr"/>
@@ -33532,7 +33532,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F338" t="inlineStr"/>
@@ -33630,7 +33630,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F339" t="inlineStr"/>
@@ -33728,7 +33728,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F340" t="inlineStr"/>
@@ -33754,7 +33754,7 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N340" t="n">
@@ -33826,7 +33826,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F341" t="inlineStr"/>
@@ -33852,7 +33852,7 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N341" t="n">
@@ -33924,7 +33924,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F342" t="inlineStr"/>
@@ -33950,7 +33950,7 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N342" t="n">
@@ -34022,7 +34022,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F343" t="inlineStr"/>
@@ -34120,7 +34120,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F344" t="inlineStr"/>
@@ -34218,7 +34218,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F345" t="inlineStr"/>
@@ -34316,7 +34316,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F346" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N346" t="n">
@@ -34414,7 +34414,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F347" t="inlineStr"/>
@@ -34440,7 +34440,7 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N347" t="n">
@@ -34512,7 +34512,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F348" t="inlineStr"/>
@@ -34538,7 +34538,7 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N348" t="n">
@@ -34610,7 +34610,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F349" t="inlineStr"/>
@@ -34636,7 +34636,7 @@
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N349" t="n">
@@ -34708,7 +34708,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F350" t="inlineStr"/>
@@ -34734,7 +34734,7 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N350" t="n">
@@ -34806,7 +34806,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F351" t="inlineStr"/>
@@ -34832,7 +34832,7 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N351" t="n">
@@ -34904,7 +34904,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F352" t="inlineStr"/>
@@ -34930,7 +34930,7 @@
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N352" t="n">
@@ -35002,7 +35002,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F353" t="inlineStr"/>
@@ -35028,7 +35028,7 @@
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N353" t="n">
@@ -35100,7 +35100,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F354" t="inlineStr"/>
@@ -35126,7 +35126,7 @@
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N354" t="n">
@@ -35198,7 +35198,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F355" t="inlineStr"/>
@@ -35224,7 +35224,7 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N355" t="n">
@@ -35322,7 +35322,7 @@
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N356" t="n">
@@ -35420,7 +35420,7 @@
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N357" t="n">
@@ -35518,7 +35518,7 @@
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N358" t="n">
@@ -35616,7 +35616,7 @@
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N359" t="n">
@@ -35714,7 +35714,7 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N360" t="n">
@@ -35812,7 +35812,7 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N361" t="n">
@@ -35910,7 +35910,7 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N362" t="n">
@@ -36008,7 +36008,7 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N363" t="n">
@@ -36106,7 +36106,7 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N364" t="n">
@@ -36204,7 +36204,7 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N365" t="n">
@@ -36302,7 +36302,7 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N366" t="n">
@@ -36400,7 +36400,7 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N367" t="n">
@@ -36498,7 +36498,7 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N368" t="n">
@@ -36596,7 +36596,7 @@
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N369" t="n">
@@ -36694,7 +36694,7 @@
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N370" t="n">
@@ -36766,7 +36766,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F371" t="inlineStr"/>
@@ -36792,7 +36792,7 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N371" t="n">
@@ -36890,7 +36890,7 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N372" t="n">
@@ -36962,7 +36962,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F373" t="inlineStr"/>
@@ -36988,7 +36988,7 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N373" t="n">
@@ -37060,7 +37060,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F374" t="inlineStr"/>
@@ -37086,7 +37086,7 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N374" t="n">
@@ -37158,7 +37158,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F375" t="inlineStr"/>
@@ -37184,7 +37184,7 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N375" t="n">
@@ -37282,7 +37282,7 @@
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N376" t="n">
@@ -37380,7 +37380,7 @@
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N377" t="n">
@@ -37478,7 +37478,7 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N378" t="n">
@@ -37576,7 +37576,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N379" t="n">
@@ -37674,7 +37674,7 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N380" t="n">
@@ -37772,7 +37772,7 @@
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N381" t="n">
@@ -37870,7 +37870,7 @@
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N382" t="n">
@@ -37964,7 +37964,7 @@
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N383" t="n">
@@ -38062,7 +38062,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N384" t="n">
@@ -38160,7 +38160,7 @@
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N385" t="n">
@@ -38258,7 +38258,7 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N386" t="n">
@@ -38356,7 +38356,7 @@
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N387" t="n">
@@ -38454,7 +38454,7 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N388" t="n">
@@ -38552,7 +38552,7 @@
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N389" t="n">
@@ -38650,7 +38650,7 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N390" t="n">
@@ -38748,7 +38748,7 @@
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N391" t="n">
@@ -38846,7 +38846,7 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N392" t="n">
@@ -38918,7 +38918,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F393" t="inlineStr"/>
@@ -38944,7 +38944,7 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N393" t="n">
@@ -39042,7 +39042,7 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N394" t="n">
@@ -39114,7 +39114,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F395" t="inlineStr"/>
@@ -39140,7 +39140,7 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N395" t="n">
@@ -39212,7 +39212,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F396" t="inlineStr"/>
@@ -39238,7 +39238,7 @@
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N396" t="n">
@@ -39310,7 +39310,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F397" t="inlineStr"/>
@@ -39336,7 +39336,7 @@
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N397" t="n">
@@ -39434,7 +39434,7 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N398" t="n">
@@ -39532,7 +39532,7 @@
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N399" t="n">
@@ -39630,7 +39630,7 @@
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N400" t="n">
@@ -39702,7 +39702,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F401" t="inlineStr"/>
@@ -39728,7 +39728,7 @@
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N401" t="n">
@@ -39826,7 +39826,7 @@
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N402" t="n">
@@ -39924,7 +39924,7 @@
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N403" t="n">
@@ -40022,7 +40022,7 @@
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N404" t="n">
@@ -40120,7 +40120,7 @@
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N405" t="n">
@@ -40214,7 +40214,7 @@
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N406" t="n">
@@ -40312,7 +40312,7 @@
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N407" t="n">
@@ -40410,7 +40410,7 @@
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N408" t="n">
@@ -40508,7 +40508,7 @@
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N409" t="n">
@@ -40606,7 +40606,7 @@
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N410" t="n">
@@ -40704,7 +40704,7 @@
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N411" t="n">
@@ -40802,7 +40802,7 @@
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N412" t="n">
@@ -40900,7 +40900,7 @@
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N413" t="n">
@@ -40998,7 +40998,7 @@
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N414" t="n">
@@ -41096,7 +41096,7 @@
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N415" t="n">
@@ -41168,7 +41168,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F416" t="inlineStr"/>
@@ -41194,7 +41194,7 @@
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N416" t="n">
@@ -41292,7 +41292,7 @@
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N417" t="n">
@@ -41364,7 +41364,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F418" t="inlineStr"/>
@@ -41390,7 +41390,7 @@
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N418" t="n">
@@ -41462,7 +41462,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F419" t="inlineStr"/>
@@ -41488,7 +41488,7 @@
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N419" t="n">
@@ -41560,7 +41560,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F420" t="inlineStr"/>
@@ -41586,7 +41586,7 @@
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N420" t="n">
@@ -41684,7 +41684,7 @@
       </c>
       <c r="M421" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N421" t="n">
@@ -41782,7 +41782,7 @@
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N422" t="n">
@@ -41880,7 +41880,7 @@
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N423" t="n">
@@ -41952,7 +41952,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F424" t="inlineStr"/>
@@ -41978,7 +41978,7 @@
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N424" t="n">
@@ -42076,7 +42076,7 @@
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N425" t="n">
@@ -42174,7 +42174,7 @@
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N426" t="n">
@@ -42272,7 +42272,7 @@
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N427" t="n">
@@ -42370,7 +42370,7 @@
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N428" t="n">
@@ -42464,7 +42464,7 @@
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N429" t="n">
@@ -42562,7 +42562,7 @@
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N430" t="n">
@@ -42660,7 +42660,7 @@
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N431" t="n">
@@ -42758,7 +42758,7 @@
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N432" t="n">
@@ -42856,7 +42856,7 @@
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N433" t="n">
@@ -42954,7 +42954,7 @@
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N434" t="n">
@@ -43052,7 +43052,7 @@
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N435" t="n">
@@ -43150,7 +43150,7 @@
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N436" t="n">
@@ -43248,7 +43248,7 @@
       </c>
       <c r="M437" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N437" t="n">
@@ -43346,7 +43346,7 @@
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N438" t="n">
@@ -43418,7 +43418,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
@@ -43444,7 +43444,7 @@
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N439" t="n">
@@ -43542,7 +43542,7 @@
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N440" t="n">
@@ -43614,7 +43614,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
@@ -43640,7 +43640,7 @@
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N441" t="n">
@@ -43712,7 +43712,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
@@ -43738,7 +43738,7 @@
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N442" t="n">
@@ -43810,7 +43810,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F443" t="inlineStr"/>
@@ -43836,7 +43836,7 @@
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N443" t="n">
@@ -43934,7 +43934,7 @@
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N444" t="n">
@@ -44032,7 +44032,7 @@
       </c>
       <c r="M445" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N445" t="n">
@@ -44130,7 +44130,7 @@
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N446" t="n">
@@ -44202,7 +44202,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
@@ -44228,7 +44228,7 @@
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N447" t="n">
@@ -44326,7 +44326,7 @@
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N448" t="n">
@@ -44424,7 +44424,7 @@
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N449" t="n">
@@ -44522,7 +44522,7 @@
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N450" t="n">
@@ -44620,7 +44620,7 @@
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N451" t="n">
@@ -44714,7 +44714,7 @@
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N452" t="n">
@@ -44812,7 +44812,7 @@
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N453" t="n">
@@ -44910,7 +44910,7 @@
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N454" t="n">
@@ -45008,7 +45008,7 @@
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N455" t="n">
@@ -45106,7 +45106,7 @@
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N456" t="n">
@@ -45204,7 +45204,7 @@
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N457" t="n">
@@ -45302,7 +45302,7 @@
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N458" t="n">
@@ -45400,7 +45400,7 @@
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N459" t="n">
@@ -45498,7 +45498,7 @@
       </c>
       <c r="M460" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N460" t="n">
@@ -45596,7 +45596,7 @@
       </c>
       <c r="M461" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N461" t="n">
@@ -45668,7 +45668,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
@@ -45694,7 +45694,7 @@
       </c>
       <c r="M462" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N462" t="n">
@@ -45792,7 +45792,7 @@
       </c>
       <c r="M463" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N463" t="n">
@@ -45864,7 +45864,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
@@ -45890,7 +45890,7 @@
       </c>
       <c r="M464" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N464" t="n">
@@ -45962,7 +45962,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F465" t="inlineStr"/>
@@ -45988,7 +45988,7 @@
       </c>
       <c r="M465" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N465" t="n">
@@ -46060,7 +46060,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
@@ -46086,7 +46086,7 @@
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N466" t="n">
@@ -46184,7 +46184,7 @@
       </c>
       <c r="M467" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N467" t="n">
@@ -46282,7 +46282,7 @@
       </c>
       <c r="M468" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N468" t="n">
@@ -46380,7 +46380,7 @@
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N469" t="n">
@@ -46452,7 +46452,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
@@ -46478,7 +46478,7 @@
       </c>
       <c r="M470" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N470" t="n">
@@ -46576,7 +46576,7 @@
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N471" t="n">
@@ -46674,7 +46674,7 @@
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N472" t="n">
@@ -46772,7 +46772,7 @@
       </c>
       <c r="M473" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N473" t="n">
@@ -46870,7 +46870,7 @@
       </c>
       <c r="M474" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N474" t="n">
@@ -46964,7 +46964,7 @@
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N475" t="n">
@@ -47062,7 +47062,7 @@
       </c>
       <c r="M476" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N476" t="n">
@@ -47160,7 +47160,7 @@
       </c>
       <c r="M477" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N477" t="n">
@@ -47258,7 +47258,7 @@
       </c>
       <c r="M478" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N478" t="n">
@@ -47356,7 +47356,7 @@
       </c>
       <c r="M479" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N479" t="n">
@@ -47454,7 +47454,7 @@
       </c>
       <c r="M480" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N480" t="n">
@@ -47552,7 +47552,7 @@
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N481" t="n">
@@ -47650,7 +47650,7 @@
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N482" t="n">
@@ -47748,7 +47748,7 @@
       </c>
       <c r="M483" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N483" t="n">
@@ -47846,7 +47846,7 @@
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N484" t="n">
@@ -47918,7 +47918,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
@@ -47944,7 +47944,7 @@
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N485" t="n">
@@ -48042,7 +48042,7 @@
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N486" t="n">
@@ -48140,7 +48140,7 @@
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N487" t="n">
@@ -48212,7 +48212,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
@@ -48238,7 +48238,7 @@
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N488" t="n">
@@ -48310,7 +48310,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
@@ -48336,7 +48336,7 @@
       </c>
       <c r="M489" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N489" t="n">
@@ -48434,7 +48434,7 @@
       </c>
       <c r="M490" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N490" t="n">
@@ -48532,7 +48532,7 @@
       </c>
       <c r="M491" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N491" t="n">
@@ -48630,7 +48630,7 @@
       </c>
       <c r="M492" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N492" t="n">
@@ -48702,7 +48702,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
@@ -48728,7 +48728,7 @@
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N493" t="n">
@@ -48826,7 +48826,7 @@
       </c>
       <c r="M494" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N494" t="n">
@@ -48924,7 +48924,7 @@
       </c>
       <c r="M495" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N495" t="n">
@@ -49022,7 +49022,7 @@
       </c>
       <c r="M496" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N496" t="n">
@@ -49120,7 +49120,7 @@
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N497" t="n">
@@ -49214,7 +49214,7 @@
       </c>
       <c r="M498" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N498" t="n">
@@ -49312,7 +49312,7 @@
       </c>
       <c r="M499" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N499" t="n">
@@ -49410,7 +49410,7 @@
       </c>
       <c r="M500" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N500" t="n">
@@ -49508,7 +49508,7 @@
       </c>
       <c r="M501" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N501" t="n">
@@ -49606,7 +49606,7 @@
       </c>
       <c r="M502" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N502" t="n">
@@ -49704,7 +49704,7 @@
       </c>
       <c r="M503" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N503" t="n">
@@ -49802,7 +49802,7 @@
       </c>
       <c r="M504" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N504" t="n">
@@ -49900,7 +49900,7 @@
       </c>
       <c r="M505" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N505" t="n">
@@ -49998,7 +49998,7 @@
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N506" t="n">
@@ -50096,7 +50096,7 @@
       </c>
       <c r="M507" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N507" t="n">
@@ -50168,7 +50168,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
@@ -50194,7 +50194,7 @@
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N508" t="n">
@@ -50292,7 +50292,7 @@
       </c>
       <c r="M509" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N509" t="n">
@@ -50364,7 +50364,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
@@ -50390,7 +50390,7 @@
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N510" t="n">
@@ -50462,7 +50462,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
@@ -50488,7 +50488,7 @@
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N511" t="n">
@@ -50560,7 +50560,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
@@ -50586,7 +50586,7 @@
       </c>
       <c r="M512" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N512" t="n">
@@ -50684,7 +50684,7 @@
       </c>
       <c r="M513" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N513" t="n">
@@ -50782,7 +50782,7 @@
       </c>
       <c r="M514" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N514" t="n">
@@ -50880,7 +50880,7 @@
       </c>
       <c r="M515" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N515" t="n">
@@ -50952,7 +50952,7 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F516" t="inlineStr"/>
@@ -50978,7 +50978,7 @@
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N516" t="n">
@@ -51076,7 +51076,7 @@
       </c>
       <c r="M517" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N517" t="n">
@@ -51174,7 +51174,7 @@
       </c>
       <c r="M518" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N518" t="n">
@@ -51272,7 +51272,7 @@
       </c>
       <c r="M519" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N519" t="n">
@@ -51370,7 +51370,7 @@
       </c>
       <c r="M520" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N520" t="n">
@@ -51464,7 +51464,7 @@
       </c>
       <c r="M521" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N521" t="n">
@@ -51562,7 +51562,7 @@
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N522" t="n">
@@ -51660,7 +51660,7 @@
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N523" t="n">
@@ -51758,7 +51758,7 @@
       </c>
       <c r="M524" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N524" t="n">
@@ -51856,7 +51856,7 @@
       </c>
       <c r="M525" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N525" t="n">
@@ -51954,7 +51954,7 @@
       </c>
       <c r="M526" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N526" t="n">
@@ -52052,7 +52052,7 @@
       </c>
       <c r="M527" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N527" t="n">
@@ -52150,7 +52150,7 @@
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N528" t="n">
@@ -52248,7 +52248,7 @@
       </c>
       <c r="M529" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N529" t="n">
@@ -52346,7 +52346,7 @@
       </c>
       <c r="M530" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N530" t="n">
@@ -52418,7 +52418,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
@@ -52444,7 +52444,7 @@
       </c>
       <c r="M531" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N531" t="n">
@@ -52542,7 +52542,7 @@
       </c>
       <c r="M532" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N532" t="n">
@@ -52614,7 +52614,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F533" t="inlineStr"/>
@@ -52640,7 +52640,7 @@
       </c>
       <c r="M533" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N533" t="n">
@@ -52712,7 +52712,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F534" t="inlineStr"/>
@@ -52738,7 +52738,7 @@
       </c>
       <c r="M534" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N534" t="n">
@@ -52810,7 +52810,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F535" t="inlineStr"/>
@@ -52836,7 +52836,7 @@
       </c>
       <c r="M535" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N535" t="n">
@@ -52934,7 +52934,7 @@
       </c>
       <c r="M536" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N536" t="n">
@@ -53032,7 +53032,7 @@
       </c>
       <c r="M537" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N537" t="n">
@@ -53130,7 +53130,7 @@
       </c>
       <c r="M538" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N538" t="n">
@@ -53202,7 +53202,7 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F539" t="inlineStr"/>
@@ -53228,7 +53228,7 @@
       </c>
       <c r="M539" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N539" t="n">
@@ -53326,7 +53326,7 @@
       </c>
       <c r="M540" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N540" t="n">
@@ -53424,7 +53424,7 @@
       </c>
       <c r="M541" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N541" t="n">
@@ -53522,7 +53522,7 @@
       </c>
       <c r="M542" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N542" t="n">
@@ -53620,7 +53620,7 @@
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N543" t="n">
@@ -53714,7 +53714,7 @@
       </c>
       <c r="M544" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N544" t="n">
@@ -53812,7 +53812,7 @@
       </c>
       <c r="M545" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N545" t="n">
@@ -53910,7 +53910,7 @@
       </c>
       <c r="M546" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N546" t="n">
@@ -54008,7 +54008,7 @@
       </c>
       <c r="M547" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N547" t="n">
@@ -54106,7 +54106,7 @@
       </c>
       <c r="M548" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N548" t="n">
@@ -54204,7 +54204,7 @@
       </c>
       <c r="M549" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N549" t="n">
@@ -54302,7 +54302,7 @@
       </c>
       <c r="M550" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N550" t="n">
@@ -54400,7 +54400,7 @@
       </c>
       <c r="M551" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N551" t="n">
@@ -54498,7 +54498,7 @@
       </c>
       <c r="M552" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N552" t="n">
@@ -54596,7 +54596,7 @@
       </c>
       <c r="M553" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N553" t="n">
@@ -54694,7 +54694,7 @@
       </c>
       <c r="M554" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N554" t="n">
@@ -54766,7 +54766,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>DIGITAL_INPUT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="F555" t="inlineStr"/>
@@ -54792,7 +54792,7 @@
       </c>
       <c r="M555" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N555" t="n">
